--- a/data-raw/2024-cmig-gender-viol-parceiro.xlsx
+++ b/data-raw/2024-cmig-gender-viol-parceiro.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoal\Acadêmico\Projetos em R\2024-chart-challenge\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22914018-3E3E-4836-AD21-D018CC7BF7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C554BEE-94F9-4C1E-BCDC-69321E5CBBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapa-2019" sheetId="3" r:id="rId1"/>
-    <sheet name="mapa_all" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="4" r:id="rId2"/>
+    <sheet name="mapa_all" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="190">
   <si>
     <t>2008-2018</t>
   </si>
@@ -593,6 +594,9 @@
   </si>
   <si>
     <t>Mato Grosso Do Sul</t>
+  </si>
+  <si>
+    <t>Tabela 5.1 - Proporção de mulheres de 18 anos ou mais de idade que sofreram violência psicológica, física ou sexual nos últimos 12 meses e cuja forma mais grave de violência psicológica, física ou sexual foi praticada por um parceiro íntimo atual ou anterior, por grupos de idade, segundo Grandes Regiões e Unidades da Federação - Brasil - 2019</t>
   </si>
 </sst>
 </file>
@@ -943,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1182,6 +1186,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285407A4-42A7-4F89-B75D-2B2F6435F856}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
